--- a/data/resumes_scrubbed/confirmations/102_2.xlsx
+++ b/data/resumes_scrubbed/confirmations/102_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:40009_{C9485345-14B4-4506-AB31-03438C092EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CA2E9A2-4763-4A07-A616-C7B71419B34B}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:40009_{C9485345-14B4-4506-AB31-03438C092EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD4FA63E-919A-438E-86B4-FC0CA3277D21}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Confirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     New nominations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Carryover nominations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Civilian </t>
   </si>
@@ -49,18 +37,6 @@
     <t>Marine Corps</t>
   </si>
   <si>
-    <t xml:space="preserve">     Unconfirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Withdrawn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total carried over from first session  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total nominations received this session </t>
-  </si>
-  <si>
     <t xml:space="preserve">Total confirmed </t>
   </si>
   <si>
@@ -88,10 +64,94 @@
     <t>End Date</t>
   </si>
   <si>
-    <t xml:space="preserve">     Confirmed</t>
-  </si>
-  <si>
     <t>Civilian (FS, PHS, CG, NOAA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Unconfirmed </t>
+  </si>
+  <si>
+    <t>Total new nominations</t>
+  </si>
+  <si>
+    <t>Total carryover nominations</t>
   </si>
 </sst>
 </file>
@@ -645,6 +705,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,15 +1040,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>102</v>
@@ -992,7 +1056,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1000,7 +1064,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <v>33606</v>
@@ -1008,7 +1072,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>33886</v>
@@ -1016,12 +1080,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>408</v>
@@ -1029,7 +1093,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>98</v>
@@ -1037,7 +1101,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>289</v>
@@ -1045,7 +1109,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>189</v>
@@ -1053,7 +1117,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
@@ -1061,12 +1125,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>2253</v>
@@ -1074,7 +1138,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -1090,7 +1154,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1098,12 +1162,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3">
         <v>6708</v>
@@ -1111,7 +1175,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
         <v>26</v>
@@ -1119,7 +1183,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3">
         <v>6728</v>
@@ -1127,7 +1191,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1135,7 +1199,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -1143,12 +1207,12 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
         <v>11201</v>
@@ -1156,7 +1220,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>37</v>
@@ -1164,7 +1228,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
         <v>11232</v>
@@ -1172,7 +1236,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -1180,7 +1244,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -1188,12 +1252,12 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
         <v>8001</v>
@@ -1201,7 +1265,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -1209,7 +1273,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
         <v>7696</v>
@@ -1217,7 +1281,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
         <v>305</v>
@@ -1225,7 +1289,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -1233,12 +1297,12 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B36" s="3">
         <v>2506</v>
@@ -1246,7 +1310,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3">
         <v>2422</v>
@@ -1254,7 +1318,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2">
         <v>84</v>
@@ -1262,12 +1326,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B39" s="3">
+        <v>31077</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
         <v>167</v>
@@ -1275,33 +1342,25 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B41" s="3">
-        <v>31077</v>
+        <v>30619</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="3">
-        <v>30619</v>
+        <v>6</v>
+      </c>
+      <c r="B42" s="2">
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B43" s="2">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="2">
         <v>12</v>
       </c>
     </row>
